--- a/Code/Results/Cases/Case_1_183/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_183/res_bus/vm_pu.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8972578809736359</v>
+        <v>0.9999970461623668</v>
       </c>
       <c r="E2">
-        <v>0.9164809909461363</v>
+        <v>1.003512603051346</v>
       </c>
       <c r="F2">
-        <v>0.8676915893751159</v>
+        <v>0.998053937717466</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9230152531614805</v>
+        <v>1.005312350954268</v>
       </c>
       <c r="L2">
-        <v>0.929241056204648</v>
+        <v>1.006403886417998</v>
       </c>
       <c r="M2">
-        <v>0.8813640088590844</v>
+        <v>1.000962071010938</v>
       </c>
       <c r="N2">
-        <v>0.9756730859597319</v>
+        <v>1.005586813710726</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,28 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.91100854506542</v>
+        <v>1.002190696077172</v>
       </c>
       <c r="E3">
-        <v>0.9281191923950979</v>
+        <v>1.005418250165749</v>
       </c>
       <c r="F3">
-        <v>0.8854079376135567</v>
+        <v>1.000925108801209</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9342588236415326</v>
+        <v>1.007127342732228</v>
       </c>
       <c r="L3">
-        <v>0.9397626542125568</v>
+        <v>1.008108944823935</v>
       </c>
       <c r="M3">
-        <v>0.8977524455918255</v>
+        <v>1.003628619941815</v>
       </c>
       <c r="N3">
-        <v>0.9798014457847806</v>
+        <v>1.006228286426888</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -476,28 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9193582179583247</v>
+        <v>1.003602290855778</v>
       </c>
       <c r="E4">
-        <v>0.9351980826542239</v>
+        <v>1.006644382404553</v>
       </c>
       <c r="F4">
-        <v>0.8961262570290409</v>
+        <v>1.002773591153556</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9410767194369245</v>
+        <v>1.008294031562883</v>
       </c>
       <c r="L4">
-        <v>0.9461470959669331</v>
+        <v>1.009204923891011</v>
       </c>
       <c r="M4">
-        <v>0.9076642168343316</v>
+        <v>1.005344591826161</v>
       </c>
       <c r="N4">
-        <v>0.9823042353921559</v>
+        <v>1.006639578476929</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -505,28 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9227529152300897</v>
+        <v>1.004193894425285</v>
       </c>
       <c r="E5">
-        <v>0.9380785569793929</v>
+        <v>1.007158223888107</v>
       </c>
       <c r="F5">
-        <v>0.9004766131642458</v>
+        <v>1.003548520839981</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9438463311798632</v>
+        <v>1.008782696506916</v>
       </c>
       <c r="L5">
-        <v>0.9487414961901047</v>
+        <v>1.009663960881819</v>
       </c>
       <c r="M5">
-        <v>0.9116862249632118</v>
+        <v>1.006063784403245</v>
       </c>
       <c r="N5">
-        <v>0.9833205315127963</v>
+        <v>1.006811593515251</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -534,28 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9233165231143474</v>
+        <v>1.004293121253614</v>
       </c>
       <c r="E6">
-        <v>0.9385569226776488</v>
+        <v>1.007244405997113</v>
       </c>
       <c r="F6">
-        <v>0.9011985045062102</v>
+        <v>1.003678509513616</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9443060206251224</v>
+        <v>1.00886464045466</v>
       </c>
       <c r="L6">
-        <v>0.9491721514914343</v>
+        <v>1.009740935846063</v>
       </c>
       <c r="M6">
-        <v>0.9123535670892948</v>
+        <v>1.00618441270587</v>
       </c>
       <c r="N6">
-        <v>0.9834891815847009</v>
+        <v>1.006840423675392</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -563,28 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9194040135936408</v>
+        <v>1.003610203023347</v>
       </c>
       <c r="E7">
-        <v>0.9352369320688901</v>
+        <v>1.006651254710765</v>
       </c>
       <c r="F7">
-        <v>0.8961849716740573</v>
+        <v>1.002783954247484</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.941114091751065</v>
+        <v>1.008300568190577</v>
       </c>
       <c r="L7">
-        <v>0.9461821007713472</v>
+        <v>1.009211064246</v>
       </c>
       <c r="M7">
-        <v>0.9077185041156127</v>
+        <v>1.005354210280487</v>
       </c>
       <c r="N7">
-        <v>0.9823179509237577</v>
+        <v>1.006641880437511</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -592,28 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9020289927595305</v>
+        <v>1.000740052902659</v>
       </c>
       <c r="E8">
-        <v>0.9205162565860342</v>
+        <v>1.004158087951371</v>
       </c>
       <c r="F8">
-        <v>0.8738486942298023</v>
+        <v>0.9990262421512631</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9269184689326917</v>
+        <v>1.00592736126651</v>
       </c>
       <c r="L8">
-        <v>0.9328925813043591</v>
+        <v>1.00698165440412</v>
       </c>
       <c r="M8">
-        <v>0.8870601362853676</v>
+        <v>1.001865241835927</v>
       </c>
       <c r="N8">
-        <v>0.9771061905313945</v>
+        <v>1.005804394172819</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -621,28 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8662636881771471</v>
+        <v>0.9956202764081894</v>
       </c>
       <c r="E9">
-        <v>0.8903482105971481</v>
+        <v>0.999709809660648</v>
       </c>
       <c r="F9">
-        <v>0.827373029423434</v>
+        <v>0.9923299142558757</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8976176628151552</v>
+        <v>1.001684422044947</v>
       </c>
       <c r="L9">
-        <v>0.9055119080682131</v>
+        <v>1.002995500289087</v>
       </c>
       <c r="M9">
-        <v>0.8440642989151736</v>
+        <v>0.9956418554368391</v>
       </c>
       <c r="N9">
-        <v>0.9663607908343532</v>
+        <v>1.004299033365596</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -650,28 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8369435302844476</v>
+        <v>0.992162242584526</v>
       </c>
       <c r="E10">
-        <v>0.8657714029518846</v>
+        <v>0.9967047873794244</v>
       </c>
       <c r="F10">
-        <v>0.7885550794316876</v>
+        <v>0.9878110444644362</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8735430889903434</v>
+        <v>0.9988121622532352</v>
       </c>
       <c r="L10">
-        <v>0.883076077681018</v>
+        <v>1.000296919877218</v>
       </c>
       <c r="M10">
-        <v>0.8081854291398578</v>
+        <v>0.9914381395819495</v>
       </c>
       <c r="N10">
-        <v>0.9575757083419285</v>
+        <v>1.003274668619613</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -679,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8221108087806419</v>
+        <v>0.9906535521406713</v>
       </c>
       <c r="E11">
-        <v>0.8533979789262796</v>
+        <v>0.9953936374089642</v>
       </c>
       <c r="F11">
-        <v>0.7685805198214378</v>
+        <v>0.9858403664321077</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8613507116806646</v>
+        <v>0.9975575053047276</v>
       </c>
       <c r="L11">
-        <v>0.8717386533041501</v>
+        <v>0.9991181050659222</v>
       </c>
       <c r="M11">
-        <v>0.7897499701944012</v>
+        <v>0.989603955915083</v>
       </c>
       <c r="N11">
-        <v>0.9531502434736543</v>
+        <v>1.002825974291096</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -708,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.816147462032038</v>
+        <v>0.9900913939142383</v>
       </c>
       <c r="E12">
-        <v>0.8484354199739316</v>
+        <v>0.9949050722402972</v>
       </c>
       <c r="F12">
-        <v>0.7604723983083391</v>
+        <v>0.9851061820500314</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8564466067570701</v>
+        <v>0.9970897735031711</v>
       </c>
       <c r="L12">
-        <v>0.8671837222984764</v>
+        <v>0.9986786442991346</v>
       </c>
       <c r="M12">
-        <v>0.7822737311778301</v>
+        <v>0.9889204816658861</v>
       </c>
       <c r="N12">
-        <v>0.951375594430498</v>
+        <v>1.002658519692851</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -737,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8174503335351735</v>
+        <v>0.9902120595381853</v>
       </c>
       <c r="E13">
-        <v>0.8495190355796814</v>
+        <v>0.9950099418895324</v>
       </c>
       <c r="F13">
-        <v>0.7622479629256718</v>
+        <v>0.9852637674690582</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8575181667427586</v>
+        <v>0.9971901811635614</v>
       </c>
       <c r="L13">
-        <v>0.8681787164242529</v>
+        <v>0.9987729831400926</v>
       </c>
       <c r="M13">
-        <v>0.7839105310813669</v>
+        <v>0.9890671890455454</v>
       </c>
       <c r="N13">
-        <v>0.9517630793444651</v>
+        <v>1.00269447529006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -766,28 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8216282357642767</v>
+        <v>0.9906071202911291</v>
       </c>
       <c r="E14">
-        <v>0.8529961310811941</v>
+        <v>0.9953532842849069</v>
       </c>
       <c r="F14">
-        <v>0.7679261418563275</v>
+        <v>0.9857797236426981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8609539043508173</v>
+        <v>0.9975188773544151</v>
       </c>
       <c r="L14">
-        <v>0.8713699821141686</v>
+        <v>0.9990818119466083</v>
       </c>
       <c r="M14">
-        <v>0.7891464232352386</v>
+        <v>0.9895475046040828</v>
       </c>
       <c r="N14">
-        <v>0.9530065300648507</v>
+        <v>1.002812148652134</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -795,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.824136741724576</v>
+        <v>0.9908502947745093</v>
       </c>
       <c r="E15">
-        <v>0.855085510594055</v>
+        <v>0.9955646225320273</v>
       </c>
       <c r="F15">
-        <v>0.7713244543371344</v>
+        <v>0.9860973288618587</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8630164911271663</v>
+        <v>0.9977211715879972</v>
       </c>
       <c r="L15">
-        <v>0.8732865386559466</v>
+        <v>0.9992718785883342</v>
       </c>
       <c r="M15">
-        <v>0.7922810641505775</v>
+        <v>0.9898431519607187</v>
       </c>
       <c r="N15">
-        <v>0.9537537721844134</v>
+        <v>1.002884545935585</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -824,28 +824,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8378734020456421</v>
+        <v>0.9922621254230287</v>
       </c>
       <c r="E16">
-        <v>0.8665484866922892</v>
+        <v>0.9967915900936594</v>
       </c>
       <c r="F16">
-        <v>0.7897988975200905</v>
+        <v>0.9879415300188071</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8743071605849554</v>
+        <v>0.9988951946573905</v>
       </c>
       <c r="L16">
-        <v>0.8837871662486108</v>
+        <v>1.00037493267123</v>
       </c>
       <c r="M16">
-        <v>0.80933413240631</v>
+        <v>0.9915595675619318</v>
       </c>
       <c r="N16">
-        <v>0.9578536350966571</v>
+        <v>1.003304337241511</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -853,28 +853,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8458473026192685</v>
+        <v>0.9931446518951078</v>
       </c>
       <c r="E17">
-        <v>0.8732187026322616</v>
+        <v>0.9975585341355971</v>
       </c>
       <c r="F17">
-        <v>0.8004279706468175</v>
+        <v>0.9890945458343663</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.880857876979784</v>
+        <v>0.9996286609749276</v>
       </c>
       <c r="L17">
-        <v>0.8898863706398967</v>
+        <v>1.001064055618971</v>
       </c>
       <c r="M17">
-        <v>0.8191533571140587</v>
+        <v>0.9926324388772686</v>
       </c>
       <c r="N17">
-        <v>0.9602390417804263</v>
+        <v>1.003566273402792</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -882,28 +882,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8503037835804899</v>
+        <v>0.9936583247212826</v>
       </c>
       <c r="E18">
-        <v>0.8769515674042567</v>
+        <v>0.99800492249386</v>
       </c>
       <c r="F18">
-        <v>0.806340991322905</v>
+        <v>0.989765737786916</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8845178239282435</v>
+        <v>1.000055426526088</v>
       </c>
       <c r="L18">
-        <v>0.8932961251448825</v>
+        <v>1.001465017693937</v>
       </c>
       <c r="M18">
-        <v>0.824617929775868</v>
+        <v>0.9932568864796906</v>
       </c>
       <c r="N18">
-        <v>0.9615737238664529</v>
+        <v>1.003718561842482</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -911,28 +911,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8517931550493981</v>
+        <v>0.9938332907999206</v>
       </c>
       <c r="E19">
-        <v>0.8781998865437637</v>
+        <v>0.9981569685386651</v>
       </c>
       <c r="F19">
-        <v>0.8083130000306396</v>
+        <v>0.9899943717553472</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8857407999382941</v>
+        <v>1.000200765487867</v>
       </c>
       <c r="L19">
-        <v>0.894435820147223</v>
+        <v>1.001601568606567</v>
       </c>
       <c r="M19">
-        <v>0.8264406743268582</v>
+        <v>0.9934695821076406</v>
       </c>
       <c r="N19">
-        <v>0.9620199996890118</v>
+        <v>1.003770404919007</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -940,28 +940,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8450126103735033</v>
+        <v>0.9930500783226618</v>
       </c>
       <c r="E20">
-        <v>0.8725199366967197</v>
+        <v>0.9974763476563394</v>
       </c>
       <c r="F20">
-        <v>0.7993183482477784</v>
+        <v>0.9889709776493112</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8801722813837881</v>
+        <v>0.9995500762588494</v>
       </c>
       <c r="L20">
-        <v>0.8892478046597758</v>
+        <v>1.000990222161191</v>
       </c>
       <c r="M20">
-        <v>0.8181280455194894</v>
+        <v>0.9925174691326856</v>
       </c>
       <c r="N20">
-        <v>0.9599891732360097</v>
+        <v>1.003538221405817</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -969,28 +969,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8204120067759949</v>
+        <v>0.9904908339126369</v>
       </c>
       <c r="E21">
-        <v>0.8519835572507023</v>
+        <v>0.995252221582819</v>
       </c>
       <c r="F21">
-        <v>0.7662755639435055</v>
+        <v>0.9856278484838733</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8599537928785124</v>
+        <v>0.9974221317641369</v>
       </c>
       <c r="L21">
-        <v>0.8704408751159125</v>
+        <v>0.9989909140153372</v>
       </c>
       <c r="M21">
-        <v>0.7876241860112004</v>
+        <v>0.989406124396305</v>
       </c>
       <c r="N21">
-        <v>0.9526444084734994</v>
+        <v>1.002777518719308</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -998,28 +998,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.802163199737242</v>
+        <v>0.9888715021031139</v>
       </c>
       <c r="E22">
-        <v>0.8368262616247208</v>
+        <v>0.9938448567504572</v>
       </c>
       <c r="F22">
-        <v>0.7412575693101732</v>
+        <v>0.9835131937094163</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8449410544495315</v>
+        <v>0.9960743677744535</v>
       </c>
       <c r="L22">
-        <v>0.8565102455187127</v>
+        <v>0.9977246088080325</v>
       </c>
       <c r="M22">
-        <v>0.7645761555060193</v>
+        <v>0.9874372626241341</v>
       </c>
       <c r="N22">
-        <v>0.9472255637578179</v>
+        <v>1.002294657611213</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1027,28 +1027,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8121754615663849</v>
+        <v>0.989730930884454</v>
       </c>
       <c r="E23">
-        <v>0.8451339615277731</v>
+        <v>0.9945917945827535</v>
       </c>
       <c r="F23">
-        <v>0.7550445770694547</v>
+        <v>0.9846354452697472</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8531794053343646</v>
+        <v>0.9967897932096137</v>
       </c>
       <c r="L23">
-        <v>0.8641509258453643</v>
+        <v>0.998396795041804</v>
       </c>
       <c r="M23">
-        <v>0.777271540733651</v>
+        <v>0.9884822189254502</v>
       </c>
       <c r="N23">
-        <v>0.9501951447147343</v>
+        <v>1.002551071293827</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1056,28 +1056,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8453903644654723</v>
+        <v>0.9930928154140612</v>
       </c>
       <c r="E24">
-        <v>0.8728361595317389</v>
+        <v>0.9975134871437004</v>
       </c>
       <c r="F24">
-        <v>0.7998206111972426</v>
+        <v>0.9890268169374213</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8804825628386314</v>
+        <v>0.9995855885604163</v>
       </c>
       <c r="L24">
-        <v>0.8895367953982443</v>
+        <v>1.001023587384582</v>
       </c>
       <c r="M24">
-        <v>0.818592139403455</v>
+        <v>0.9925694231479878</v>
       </c>
       <c r="N24">
-        <v>0.9601022508073532</v>
+        <v>1.003550898422906</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1085,28 +1085,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8762819016509306</v>
+        <v>0.9969515404821372</v>
       </c>
       <c r="E25">
-        <v>0.8987789664681759</v>
+        <v>1.00086657049586</v>
       </c>
       <c r="F25">
-        <v>0.8404730596758192</v>
+        <v>0.9940703804778079</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9058337813048234</v>
+        <v>1.002788820867279</v>
       </c>
       <c r="L25">
-        <v>0.9131820931949683</v>
+        <v>1.004033090616584</v>
       </c>
       <c r="M25">
-        <v>0.8561819366637203</v>
+        <v>0.9972601003021525</v>
       </c>
       <c r="N25">
-        <v>0.9693698015215528</v>
+        <v>1.004691803431707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_183/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_183/res_bus/vm_pu.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9999970461623668</v>
+        <v>0.8972578809736351</v>
       </c>
       <c r="E2">
-        <v>1.003512603051346</v>
+        <v>0.9164809909461354</v>
       </c>
       <c r="F2">
-        <v>0.998053937717466</v>
+        <v>0.8676915893751145</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.005312350954268</v>
+        <v>0.9230152531614797</v>
       </c>
       <c r="L2">
-        <v>1.006403886417998</v>
+        <v>0.9292410562046471</v>
       </c>
       <c r="M2">
-        <v>1.000962071010938</v>
+        <v>0.8813640088590829</v>
       </c>
       <c r="N2">
-        <v>1.005586813710726</v>
+        <v>0.9756730859597316</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,28 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002190696077172</v>
+        <v>0.9110085450654201</v>
       </c>
       <c r="E3">
-        <v>1.005418250165749</v>
+        <v>0.928119192395098</v>
       </c>
       <c r="F3">
-        <v>1.000925108801209</v>
+        <v>0.8854079376135571</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.007127342732228</v>
+        <v>0.9342588236415327</v>
       </c>
       <c r="L3">
-        <v>1.008108944823935</v>
+        <v>0.9397626542125569</v>
       </c>
       <c r="M3">
-        <v>1.003628619941815</v>
+        <v>0.8977524455918258</v>
       </c>
       <c r="N3">
-        <v>1.006228286426888</v>
+        <v>0.9798014457847806</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -476,28 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.003602290855778</v>
+        <v>0.9193582179583242</v>
       </c>
       <c r="E4">
-        <v>1.006644382404553</v>
+        <v>0.9351980826542232</v>
       </c>
       <c r="F4">
-        <v>1.002773591153556</v>
+        <v>0.8961262570290403</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.008294031562883</v>
+        <v>0.9410767194369238</v>
       </c>
       <c r="L4">
-        <v>1.009204923891011</v>
+        <v>0.9461470959669324</v>
       </c>
       <c r="M4">
-        <v>1.005344591826161</v>
+        <v>0.9076642168343312</v>
       </c>
       <c r="N4">
-        <v>1.006639578476929</v>
+        <v>0.9823042353921556</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -505,28 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004193894425285</v>
+        <v>0.9227529152300877</v>
       </c>
       <c r="E5">
-        <v>1.007158223888107</v>
+        <v>0.9380785569793912</v>
       </c>
       <c r="F5">
-        <v>1.003548520839981</v>
+        <v>0.9004766131642437</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.008782696506916</v>
+        <v>0.9438463311798615</v>
       </c>
       <c r="L5">
-        <v>1.009663960881819</v>
+        <v>0.948741496190103</v>
       </c>
       <c r="M5">
-        <v>1.006063784403245</v>
+        <v>0.9116862249632099</v>
       </c>
       <c r="N5">
-        <v>1.006811593515251</v>
+        <v>0.9833205315127957</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -534,28 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.004293121253614</v>
+        <v>0.9233165231143469</v>
       </c>
       <c r="E6">
-        <v>1.007244405997113</v>
+        <v>0.9385569226776482</v>
       </c>
       <c r="F6">
-        <v>1.003678509513616</v>
+        <v>0.9011985045062099</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.00886464045466</v>
+        <v>0.9443060206251217</v>
       </c>
       <c r="L6">
-        <v>1.009740935846063</v>
+        <v>0.9491721514914334</v>
       </c>
       <c r="M6">
-        <v>1.00618441270587</v>
+        <v>0.9123535670892944</v>
       </c>
       <c r="N6">
-        <v>1.006840423675392</v>
+        <v>0.9834891815847006</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -563,28 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003610203023347</v>
+        <v>0.9194040135936403</v>
       </c>
       <c r="E7">
-        <v>1.006651254710765</v>
+        <v>0.9352369320688892</v>
       </c>
       <c r="F7">
-        <v>1.002783954247484</v>
+        <v>0.8961849716740562</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.008300568190577</v>
+        <v>0.9411140917510644</v>
       </c>
       <c r="L7">
-        <v>1.009211064246</v>
+        <v>0.9461821007713463</v>
       </c>
       <c r="M7">
-        <v>1.005354210280487</v>
+        <v>0.9077185041156117</v>
       </c>
       <c r="N7">
-        <v>1.006641880437511</v>
+        <v>0.9823179509237577</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -592,28 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000740052902659</v>
+        <v>0.9020289927595301</v>
       </c>
       <c r="E8">
-        <v>1.004158087951371</v>
+        <v>0.9205162565860336</v>
       </c>
       <c r="F8">
-        <v>0.9990262421512631</v>
+        <v>0.8738486942298019</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.00592736126651</v>
+        <v>0.926918468932691</v>
       </c>
       <c r="L8">
-        <v>1.00698165440412</v>
+        <v>0.9328925813043585</v>
       </c>
       <c r="M8">
-        <v>1.001865241835927</v>
+        <v>0.8870601362853672</v>
       </c>
       <c r="N8">
-        <v>1.005804394172819</v>
+        <v>0.9771061905313942</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -621,28 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9956202764081894</v>
+        <v>0.8662636881771477</v>
       </c>
       <c r="E9">
-        <v>0.999709809660648</v>
+        <v>0.8903482105971484</v>
       </c>
       <c r="F9">
-        <v>0.9923299142558757</v>
+        <v>0.8273730294234348</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.001684422044947</v>
+        <v>0.8976176628151558</v>
       </c>
       <c r="L9">
-        <v>1.002995500289087</v>
+        <v>0.9055119080682135</v>
       </c>
       <c r="M9">
-        <v>0.9956418554368391</v>
+        <v>0.8440642989151746</v>
       </c>
       <c r="N9">
-        <v>1.004299033365596</v>
+        <v>0.9663607908343533</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -650,28 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.992162242584526</v>
+        <v>0.8369435302844498</v>
       </c>
       <c r="E10">
-        <v>0.9967047873794244</v>
+        <v>0.8657714029518867</v>
       </c>
       <c r="F10">
-        <v>0.9878110444644362</v>
+        <v>0.7885550794316903</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9988121622532352</v>
+        <v>0.8735430889903454</v>
       </c>
       <c r="L10">
-        <v>1.000296919877218</v>
+        <v>0.8830760776810201</v>
       </c>
       <c r="M10">
-        <v>0.9914381395819495</v>
+        <v>0.8081854291398605</v>
       </c>
       <c r="N10">
-        <v>1.003274668619613</v>
+        <v>0.9575757083419292</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -679,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9906535521406713</v>
+        <v>0.8221108087806408</v>
       </c>
       <c r="E11">
-        <v>0.9953936374089642</v>
+        <v>0.8533979789262784</v>
       </c>
       <c r="F11">
-        <v>0.9858403664321077</v>
+        <v>0.7685805198214364</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9975575053047276</v>
+        <v>0.8613507116806635</v>
       </c>
       <c r="L11">
-        <v>0.9991181050659222</v>
+        <v>0.871738653304149</v>
       </c>
       <c r="M11">
-        <v>0.989603955915083</v>
+        <v>0.7897499701943997</v>
       </c>
       <c r="N11">
-        <v>1.002825974291096</v>
+        <v>0.9531502434736538</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -708,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9900913939142383</v>
+        <v>0.8161474620320389</v>
       </c>
       <c r="E12">
-        <v>0.9949050722402972</v>
+        <v>0.8484354199739323</v>
       </c>
       <c r="F12">
-        <v>0.9851061820500314</v>
+        <v>0.7604723983083393</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9970897735031711</v>
+        <v>0.8564466067570707</v>
       </c>
       <c r="L12">
-        <v>0.9986786442991346</v>
+        <v>0.8671837222984771</v>
       </c>
       <c r="M12">
-        <v>0.9889204816658861</v>
+        <v>0.7822737311778305</v>
       </c>
       <c r="N12">
-        <v>1.002658519692851</v>
+        <v>0.9513755944304982</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -737,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9902120595381853</v>
+        <v>0.8174503335351713</v>
       </c>
       <c r="E13">
-        <v>0.9950099418895324</v>
+        <v>0.8495190355796794</v>
       </c>
       <c r="F13">
-        <v>0.9852637674690582</v>
+        <v>0.7622479629256692</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9971901811635614</v>
+        <v>0.8575181667427566</v>
       </c>
       <c r="L13">
-        <v>0.9987729831400926</v>
+        <v>0.868178716424251</v>
       </c>
       <c r="M13">
-        <v>0.9890671890455454</v>
+        <v>0.7839105310813643</v>
       </c>
       <c r="N13">
-        <v>1.00269447529006</v>
+        <v>0.9517630793444644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -766,28 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9906071202911291</v>
+        <v>0.8216282357642757</v>
       </c>
       <c r="E14">
-        <v>0.9953532842849069</v>
+        <v>0.8529961310811933</v>
       </c>
       <c r="F14">
-        <v>0.9857797236426981</v>
+        <v>0.7679261418563267</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9975188773544151</v>
+        <v>0.8609539043508163</v>
       </c>
       <c r="L14">
-        <v>0.9990818119466083</v>
+        <v>0.8713699821141677</v>
       </c>
       <c r="M14">
-        <v>0.9895475046040828</v>
+        <v>0.7891464232352376</v>
       </c>
       <c r="N14">
-        <v>1.002812148652134</v>
+        <v>0.9530065300648503</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -795,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9908502947745093</v>
+        <v>0.8241367417245762</v>
       </c>
       <c r="E15">
-        <v>0.9955646225320273</v>
+        <v>0.8550855105940548</v>
       </c>
       <c r="F15">
-        <v>0.9860973288618587</v>
+        <v>0.7713244543371348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9977211715879972</v>
+        <v>0.8630164911271663</v>
       </c>
       <c r="L15">
-        <v>0.9992718785883342</v>
+        <v>0.8732865386559466</v>
       </c>
       <c r="M15">
-        <v>0.9898431519607187</v>
+        <v>0.7922810641505776</v>
       </c>
       <c r="N15">
-        <v>1.002884545935585</v>
+        <v>0.9537537721844133</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -824,28 +824,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9922621254230287</v>
+        <v>0.8378734020456413</v>
       </c>
       <c r="E16">
-        <v>0.9967915900936594</v>
+        <v>0.8665484866922885</v>
       </c>
       <c r="F16">
-        <v>0.9879415300188071</v>
+        <v>0.7897988975200888</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9988951946573905</v>
+        <v>0.8743071605849544</v>
       </c>
       <c r="L16">
-        <v>1.00037493267123</v>
+        <v>0.8837871662486099</v>
       </c>
       <c r="M16">
-        <v>0.9915595675619318</v>
+        <v>0.8093341324063086</v>
       </c>
       <c r="N16">
-        <v>1.003304337241511</v>
+        <v>0.9578536350966569</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -853,28 +853,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9931446518951078</v>
+        <v>0.8458473026192692</v>
       </c>
       <c r="E17">
-        <v>0.9975585341355971</v>
+        <v>0.873218702632262</v>
       </c>
       <c r="F17">
-        <v>0.9890945458343663</v>
+        <v>0.8004279706468186</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9996286609749276</v>
+        <v>0.8808578769797845</v>
       </c>
       <c r="L17">
-        <v>1.001064055618971</v>
+        <v>0.8898863706398971</v>
       </c>
       <c r="M17">
-        <v>0.9926324388772686</v>
+        <v>0.8191533571140597</v>
       </c>
       <c r="N17">
-        <v>1.003566273402792</v>
+        <v>0.9602390417804264</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -882,28 +882,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9936583247212826</v>
+        <v>0.8503037835804891</v>
       </c>
       <c r="E18">
-        <v>0.99800492249386</v>
+        <v>0.8769515674042561</v>
       </c>
       <c r="F18">
-        <v>0.989765737786916</v>
+        <v>0.8063409913229043</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.000055426526088</v>
+        <v>0.884517823928243</v>
       </c>
       <c r="L18">
-        <v>1.001465017693937</v>
+        <v>0.8932961251448817</v>
       </c>
       <c r="M18">
-        <v>0.9932568864796906</v>
+        <v>0.8246179297758672</v>
       </c>
       <c r="N18">
-        <v>1.003718561842482</v>
+        <v>0.9615737238664525</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -911,28 +911,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9938332907999206</v>
+        <v>0.8517931550493969</v>
       </c>
       <c r="E19">
-        <v>0.9981569685386651</v>
+        <v>0.8781998865437629</v>
       </c>
       <c r="F19">
-        <v>0.9899943717553472</v>
+        <v>0.8083130000306386</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.000200765487867</v>
+        <v>0.8857407999382931</v>
       </c>
       <c r="L19">
-        <v>1.001601568606567</v>
+        <v>0.8944358201472221</v>
       </c>
       <c r="M19">
-        <v>0.9934695821076406</v>
+        <v>0.8264406743268572</v>
       </c>
       <c r="N19">
-        <v>1.003770404919007</v>
+        <v>0.9620199996890114</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -940,28 +940,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9930500783226618</v>
+        <v>0.8450126103735053</v>
       </c>
       <c r="E20">
-        <v>0.9974763476563394</v>
+        <v>0.8725199366967213</v>
       </c>
       <c r="F20">
-        <v>0.9889709776493112</v>
+        <v>0.7993183482477803</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9995500762588494</v>
+        <v>0.8801722813837898</v>
       </c>
       <c r="L20">
-        <v>1.000990222161191</v>
+        <v>0.8892478046597775</v>
       </c>
       <c r="M20">
-        <v>0.9925174691326856</v>
+        <v>0.8181280455194914</v>
       </c>
       <c r="N20">
-        <v>1.003538221405817</v>
+        <v>0.9599891732360103</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -969,28 +969,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9904908339126369</v>
+        <v>0.8204120067759944</v>
       </c>
       <c r="E21">
-        <v>0.995252221582819</v>
+        <v>0.8519835572507017</v>
       </c>
       <c r="F21">
-        <v>0.9856278484838733</v>
+        <v>0.7662755639435044</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9974221317641369</v>
+        <v>0.8599537928785116</v>
       </c>
       <c r="L21">
-        <v>0.9989909140153372</v>
+        <v>0.8704408751159117</v>
       </c>
       <c r="M21">
-        <v>0.989406124396305</v>
+        <v>0.7876241860111994</v>
       </c>
       <c r="N21">
-        <v>1.002777518719308</v>
+        <v>0.9526444084734993</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -998,28 +998,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9888715021031139</v>
+        <v>0.8021631997372403</v>
       </c>
       <c r="E22">
-        <v>0.9938448567504572</v>
+        <v>0.8368262616247196</v>
       </c>
       <c r="F22">
-        <v>0.9835131937094163</v>
+        <v>0.7412575693101711</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9960743677744535</v>
+        <v>0.8449410544495304</v>
       </c>
       <c r="L22">
-        <v>0.9977246088080325</v>
+        <v>0.8565102455187115</v>
       </c>
       <c r="M22">
-        <v>0.9874372626241341</v>
+        <v>0.7645761555060173</v>
       </c>
       <c r="N22">
-        <v>1.002294657611213</v>
+        <v>0.9472255637578173</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1027,28 +1027,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.989730930884454</v>
+        <v>0.8121754615663848</v>
       </c>
       <c r="E23">
-        <v>0.9945917945827535</v>
+        <v>0.8451339615277726</v>
       </c>
       <c r="F23">
-        <v>0.9846354452697472</v>
+        <v>0.7550445770694544</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9967897932096137</v>
+        <v>0.8531794053343646</v>
       </c>
       <c r="L23">
-        <v>0.998396795041804</v>
+        <v>0.8641509258453642</v>
       </c>
       <c r="M23">
-        <v>0.9884822189254502</v>
+        <v>0.7772715407336506</v>
       </c>
       <c r="N23">
-        <v>1.002551071293827</v>
+        <v>0.9501951447147342</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1056,28 +1056,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9930928154140612</v>
+        <v>0.8453903644654722</v>
       </c>
       <c r="E24">
-        <v>0.9975134871437004</v>
+        <v>0.8728361595317388</v>
       </c>
       <c r="F24">
-        <v>0.9890268169374213</v>
+        <v>0.799820611197242</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9995855885604163</v>
+        <v>0.8804825628386311</v>
       </c>
       <c r="L24">
-        <v>1.001023587384582</v>
+        <v>0.8895367953982442</v>
       </c>
       <c r="M24">
-        <v>0.9925694231479878</v>
+        <v>0.8185921394034545</v>
       </c>
       <c r="N24">
-        <v>1.003550898422906</v>
+        <v>0.9601022508073532</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1085,28 +1085,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9969515404821372</v>
+        <v>0.876281901650931</v>
       </c>
       <c r="E25">
-        <v>1.00086657049586</v>
+        <v>0.8987789664681765</v>
       </c>
       <c r="F25">
-        <v>0.9940703804778079</v>
+        <v>0.8404730596758195</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.002788820867279</v>
+        <v>0.9058337813048235</v>
       </c>
       <c r="L25">
-        <v>1.004033090616584</v>
+        <v>0.9131820931949689</v>
       </c>
       <c r="M25">
-        <v>0.9972601003021525</v>
+        <v>0.8561819366637206</v>
       </c>
       <c r="N25">
-        <v>1.004691803431707</v>
+        <v>0.9693698015215529</v>
       </c>
     </row>
   </sheetData>
